--- a/FacialRecognition/fr/fr1.xlsx
+++ b/FacialRecognition/fr/fr1.xlsx
@@ -449,87 +449,87 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44908.21020683202</v>
       </c>
       <c r="B1" s="0" t="inlineStr">
         <is>
-          <t>Daiki</t>
+          <t>Kento</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44908.21020683202</v>
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>Daiki</t>
+          <t>Kento</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44908.21020683202</v>
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>Daiki</t>
+          <t>Kento</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44908.21020683202</v>
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>Daiki</t>
+          <t>Kento</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44908.21020683202</v>
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>Daiki</t>
+          <t>Kento</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44908.21020683202</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>Daiki</t>
+          <t>Kento</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44908.21020683202</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>Daiki</t>
+          <t>Kento</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44908.21020683202</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Kento</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44908.21020683202</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
@@ -539,37 +539,37 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44908.21020683202</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>Daiki</t>
+          <t>Kento</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44908.21020683202</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>Daiki</t>
+          <t>unknown</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44908.21020683202</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>Daiki</t>
+          <t>Kento</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44908.21020683202</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44908.21020683202</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
@@ -589,47 +589,47 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44908.21020683202</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Daiki</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44908.21020683202</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Daiki</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44908.21020683202</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Daiki</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44908.21020683202</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Daiki</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44908.21020683202</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44908.21020683202</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
@@ -649,7 +649,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44908.21020683202</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44908.21020683202</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
@@ -669,27 +669,27 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44908.21020683202</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>Kento</t>
+          <t>Daiki</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44908.21020683202</v>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>Kento</t>
+          <t>Daiki</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44908.21020683202</v>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
@@ -699,37 +699,37 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44908.21020683202</v>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>Kento</t>
+          <t>Daiki</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44908.21020683202</v>
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>Kento</t>
+          <t>Daiki</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44908.21020683202</v>
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t>Kento</t>
+          <t>Daiki</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44908.21020683202</v>
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44908.21020683202</v>
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44908.21020683202</v>
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44908.21020683202</v>
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44908.21020683202</v>
       </c>
       <c r="B33" s="0" t="inlineStr">
         <is>
@@ -779,37 +779,37 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44908.21020683202</v>
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t>Kento</t>
+          <t>Daiki</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44908.21020683202</v>
       </c>
       <c r="B35" s="0" t="inlineStr">
         <is>
-          <t>Kento</t>
+          <t>Daiki</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44908.21020683202</v>
       </c>
       <c r="B36" s="0" t="inlineStr">
         <is>
-          <t>Kento</t>
+          <t>Daiki</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44908.20534055556</v>
       </c>
       <c r="B37" s="0" t="inlineStr">
         <is>
@@ -819,7 +819,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44908.20534055556</v>
       </c>
       <c r="B38" s="0" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B39" s="0" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B40" s="0" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B41" s="0" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B42" s="0" t="inlineStr">
         <is>
@@ -869,7 +869,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B43" s="0" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B44" s="0" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B45" s="0" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B46" s="0" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B47" s="0" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B48" s="0" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B49" s="0" t="inlineStr">
         <is>
@@ -939,7 +939,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B50" s="0" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B51" s="0" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B52" s="0" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B53" s="0" t="inlineStr">
         <is>
@@ -979,7 +979,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B54" s="0" t="inlineStr">
         <is>
@@ -989,7 +989,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B55" s="0" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B56" s="0" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B57" s="0" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B58" s="0" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B59" s="0" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B60" s="0" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B61" s="0" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B62" s="0" t="inlineStr">
         <is>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B63" s="0" t="inlineStr">
         <is>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B64" s="0" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B65" s="0" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B66" s="0" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B67" s="0" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B68" s="0" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B69" s="0" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B70" s="0" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B71" s="0" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B72" s="0" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B73" s="0" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B74" s="0" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B75" s="0" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B76" s="0" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B77" s="0" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B78" s="0" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B79" s="0" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B80" s="0" t="inlineStr">
         <is>
@@ -1249,7 +1249,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B81" s="0" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B82" s="0" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B83" s="0" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B84" s="0" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B85" s="0" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B86" s="0" t="inlineStr">
         <is>
@@ -1309,7 +1309,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B87" s="0" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B88" s="0" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B89" s="0" t="inlineStr">
         <is>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B90" s="0" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B91" s="0" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B92" s="0" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B93" s="0" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B94" s="0" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B95" s="0" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B96" s="0" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B97" s="0" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B98" s="0" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B99" s="0" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B100" s="0" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B101" s="0" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B102" s="0" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B103" s="0" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B104" s="0" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B105" s="0" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B106" s="0" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B107" s="0" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B108" s="0" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B109" s="0" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B110" s="0" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B111" s="0" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B112" s="0" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B113" s="0" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B114" s="0" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B115" s="0" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B116" s="0" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B117" s="0" t="inlineStr">
         <is>
@@ -1619,7 +1619,7 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B118" s="0" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B119" s="0" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B120" s="0" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B121" s="0" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B122" s="0" t="inlineStr">
         <is>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B123" s="0" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B124" s="0" t="inlineStr">
         <is>
@@ -1689,7 +1689,7 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B125" s="0" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B126" s="0" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B127" s="0" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B128" s="0" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B129" s="0" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B130" s="0" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B131" s="0" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B132" s="0" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B133" s="0" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B134" s="0" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B135" s="0" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B136" s="0" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B137" s="0" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>44903.10089160508</v>
+        <v>44903.1008916088</v>
       </c>
       <c r="B138" s="0" t="inlineStr">
         <is>
@@ -1829,9 +1829,9 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B139" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B139" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -1839,9 +1839,9 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B140" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B140" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -1849,9 +1849,9 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B141" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B141" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -1859,9 +1859,9 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B142" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B142" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -1869,9 +1869,9 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B143" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B143" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -1879,9 +1879,9 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B144" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B144" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -1889,9 +1889,9 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B145" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B145" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -1899,9 +1899,9 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B146" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B146" s="0" t="inlineStr">
         <is>
           <t>unknown</t>
         </is>
@@ -1909,9 +1909,9 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B147" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B147" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -1919,9 +1919,9 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B148" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B148" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -1929,9 +1929,9 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B149" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B149" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -1939,9 +1939,9 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B150" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B150" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -1949,9 +1949,9 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B151" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B151" s="0" t="inlineStr">
         <is>
           <t>unknown</t>
         </is>
@@ -1959,9 +1959,9 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B152" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B152" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -1969,9 +1969,9 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B153" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B153" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -1979,9 +1979,9 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B154" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B154" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -1989,9 +1989,9 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B155" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B155" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -1999,9 +1999,9 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B156" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B156" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2009,9 +2009,9 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B157" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B157" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2019,9 +2019,9 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B158" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B158" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2029,9 +2029,9 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B159" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B159" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2039,9 +2039,9 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B160" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B160" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2049,9 +2049,9 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B161" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B161" s="0" t="inlineStr">
         <is>
           <t>unknown</t>
         </is>
@@ -2059,9 +2059,9 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B162" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B162" s="0" t="inlineStr">
         <is>
           <t>unknown</t>
         </is>
@@ -2069,9 +2069,9 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B163" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B163" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2079,9 +2079,9 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B164" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B164" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2089,9 +2089,9 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B165" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B165" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2099,9 +2099,9 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B166" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B166" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2109,9 +2109,9 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B167" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B167" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2119,9 +2119,9 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B168" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B168" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2129,9 +2129,9 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B169" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B169" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2139,9 +2139,9 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B170" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B170" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2149,9 +2149,9 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B171" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B171" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2159,9 +2159,9 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B172" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B172" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2169,9 +2169,9 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B173" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B173" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2179,9 +2179,9 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B174" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B174" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2189,9 +2189,9 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B175" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B175" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2199,9 +2199,9 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B176" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B176" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2209,9 +2209,9 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B177" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B177" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2219,9 +2219,9 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B178" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B178" s="0" t="inlineStr">
         <is>
           <t>unknown</t>
         </is>
@@ -2229,9 +2229,9 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B179" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B179" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2239,9 +2239,9 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B180" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B180" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2249,9 +2249,9 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B181" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B181" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2259,9 +2259,9 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B182" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B182" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2269,9 +2269,9 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B183" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B183" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2279,9 +2279,9 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B184" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B184" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2289,9 +2289,9 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B185" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B185" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2299,9 +2299,9 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B186" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B186" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2309,9 +2309,9 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B187" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B187" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2319,9 +2319,9 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B188" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B188" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2329,9 +2329,9 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B189" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B189" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2339,9 +2339,9 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B190" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B190" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2349,9 +2349,9 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B191" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B191" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2359,9 +2359,9 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B192" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B192" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2369,9 +2369,9 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B193" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B193" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2379,9 +2379,9 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B194" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B194" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2389,9 +2389,9 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B195" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B195" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2399,9 +2399,9 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B196" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B196" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2409,9 +2409,9 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B197" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B197" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2419,9 +2419,9 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B198" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B198" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2429,9 +2429,9 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B199" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B199" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2439,9 +2439,9 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B200" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B200" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2449,9 +2449,9 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B201" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B201" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2459,9 +2459,9 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B202" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B202" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2469,9 +2469,9 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B203" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B203" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2479,9 +2479,9 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B204" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B204" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2489,9 +2489,9 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B205" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B205" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2499,9 +2499,9 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B206" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B206" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2509,9 +2509,9 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B207" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B207" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2519,9 +2519,9 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B208" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B208" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2529,9 +2529,9 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B209" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B209" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2539,9 +2539,9 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B210" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B210" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2549,9 +2549,9 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B211" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B211" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2559,9 +2559,9 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B212" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B212" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2569,9 +2569,9 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B213" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B213" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2579,9 +2579,9 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B214" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B214" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2589,9 +2589,9 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B215" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B215" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2599,9 +2599,9 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B216" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B216" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2609,9 +2609,9 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B217" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B217" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2619,9 +2619,9 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B218" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B218" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2629,9 +2629,9 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B219" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B219" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2639,9 +2639,9 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B220" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B220" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2649,9 +2649,9 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B221" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B221" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2659,9 +2659,9 @@
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B222" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B222" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2669,9 +2669,9 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B223" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B223" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2679,9 +2679,9 @@
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B224" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B224" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2689,9 +2689,9 @@
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B225" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B225" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2699,9 +2699,9 @@
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B226" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B226" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2709,9 +2709,9 @@
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B227" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B227" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2719,9 +2719,9 @@
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B228" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B228" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2729,9 +2729,9 @@
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B229" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B229" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2739,9 +2739,9 @@
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B230" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B230" s="0" t="inlineStr">
         <is>
           <t>Kento</t>
         </is>
@@ -2749,9 +2749,9 @@
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B231" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B231" s="0" t="inlineStr">
         <is>
           <t>Kento</t>
         </is>
@@ -2759,9 +2759,9 @@
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B232" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B232" s="0" t="inlineStr">
         <is>
           <t>unknown</t>
         </is>
@@ -2769,9 +2769,9 @@
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B233" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B233" s="0" t="inlineStr">
         <is>
           <t>Kento</t>
         </is>
@@ -2779,9 +2779,9 @@
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B234" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B234" s="0" t="inlineStr">
         <is>
           <t>Kento</t>
         </is>
@@ -2789,9 +2789,9 @@
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B235" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B235" s="0" t="inlineStr">
         <is>
           <t>Kento</t>
         </is>
@@ -2799,9 +2799,9 @@
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B236" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B236" s="0" t="inlineStr">
         <is>
           <t>Kento</t>
         </is>
@@ -2809,9 +2809,9 @@
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B237" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B237" s="0" t="inlineStr">
         <is>
           <t>Kento</t>
         </is>
@@ -2819,9 +2819,9 @@
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B238" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B238" s="0" t="inlineStr">
         <is>
           <t>Kento</t>
         </is>
@@ -2829,9 +2829,9 @@
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B239" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B239" s="0" t="inlineStr">
         <is>
           <t>Kento</t>
         </is>
@@ -2839,9 +2839,9 @@
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B240" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B240" s="0" t="inlineStr">
         <is>
           <t>Kento</t>
         </is>
@@ -2849,9 +2849,9 @@
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B241" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B241" s="0" t="inlineStr">
         <is>
           <t>Kento</t>
         </is>
@@ -2859,9 +2859,9 @@
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B242" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B242" s="0" t="inlineStr">
         <is>
           <t>Kento</t>
         </is>
@@ -2869,9 +2869,9 @@
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B243" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B243" s="0" t="inlineStr">
         <is>
           <t>Kento</t>
         </is>
@@ -2879,9 +2879,9 @@
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B244" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B244" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2889,9 +2889,9 @@
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B245" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B245" s="0" t="inlineStr">
         <is>
           <t>Kento</t>
         </is>
@@ -2899,9 +2899,9 @@
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B246" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B246" s="0" t="inlineStr">
         <is>
           <t>Kento</t>
         </is>
@@ -2909,9 +2909,9 @@
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B247" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B247" s="0" t="inlineStr">
         <is>
           <t>Kento</t>
         </is>
@@ -2919,9 +2919,9 @@
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B248" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B248" s="0" t="inlineStr">
         <is>
           <t>Kento</t>
         </is>
@@ -2929,9 +2929,9 @@
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B249" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B249" s="0" t="inlineStr">
         <is>
           <t>Kento</t>
         </is>
@@ -2939,9 +2939,9 @@
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B250" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B250" s="0" t="inlineStr">
         <is>
           <t>Kento</t>
         </is>
@@ -2949,9 +2949,9 @@
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B251" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B251" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -2959,9 +2959,9 @@
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B252" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B252" s="0" t="inlineStr">
         <is>
           <t>Kento</t>
         </is>
@@ -2969,9 +2969,9 @@
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B253" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B253" s="0" t="inlineStr">
         <is>
           <t>Kento</t>
         </is>
@@ -2979,9 +2979,9 @@
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B254" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B254" s="0" t="inlineStr">
         <is>
           <t>Kento</t>
         </is>
@@ -2989,9 +2989,9 @@
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B255" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B255" s="0" t="inlineStr">
         <is>
           <t>Kento</t>
         </is>
@@ -2999,9 +2999,9 @@
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B256" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B256" s="0" t="inlineStr">
         <is>
           <t>Kento</t>
         </is>
@@ -3009,9 +3009,9 @@
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B257" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B257" s="0" t="inlineStr">
         <is>
           <t>Kento</t>
         </is>
@@ -3019,9 +3019,9 @@
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B258" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B258" s="0" t="inlineStr">
         <is>
           <t>Kento</t>
         </is>
@@ -3029,9 +3029,9 @@
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B259" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B259" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -3039,9 +3039,9 @@
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B260" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B260" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -3049,9 +3049,9 @@
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B261" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B261" s="0" t="inlineStr">
         <is>
           <t>Kento</t>
         </is>
@@ -3059,9 +3059,9 @@
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B262" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B262" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -3069,9 +3069,9 @@
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B263" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B263" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -3079,9 +3079,9 @@
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B264" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B264" s="0" t="inlineStr">
         <is>
           <t>Kento</t>
         </is>
@@ -3089,9 +3089,9 @@
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B265" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B265" s="0" t="inlineStr">
         <is>
           <t>Kento</t>
         </is>
@@ -3099,9 +3099,9 @@
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B266" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B266" s="0" t="inlineStr">
         <is>
           <t>Kento</t>
         </is>
@@ -3109,9 +3109,9 @@
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B267" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B267" s="0" t="inlineStr">
         <is>
           <t>Kento</t>
         </is>
@@ -3119,9 +3119,9 @@
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B268" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B268" s="0" t="inlineStr">
         <is>
           <t>Kento</t>
         </is>
@@ -3129,9 +3129,9 @@
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B269" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B269" s="0" t="inlineStr">
         <is>
           <t>Kento</t>
         </is>
@@ -3139,9 +3139,9 @@
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B270" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B270" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -3149,9 +3149,9 @@
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B271" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B271" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -3159,9 +3159,9 @@
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B272" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B272" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -3169,9 +3169,9 @@
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B273" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B273" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -3179,9 +3179,9 @@
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B274" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B274" s="0" t="inlineStr">
         <is>
           <t>Kento</t>
         </is>
@@ -3189,9 +3189,9 @@
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B275" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B275" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -3199,9 +3199,9 @@
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B276" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B276" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -3209,9 +3209,9 @@
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B277" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B277" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -3219,9 +3219,9 @@
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B278" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B278" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -3229,9 +3229,9 @@
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B279" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B279" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -3239,9 +3239,9 @@
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B280" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B280" s="0" t="inlineStr">
         <is>
           <t>Kento</t>
         </is>
@@ -3249,9 +3249,9 @@
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B281" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B281" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -3259,9 +3259,9 @@
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B282" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B282" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -3269,9 +3269,9 @@
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B283" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B283" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -3279,9 +3279,9 @@
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B284" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B284" s="0" t="inlineStr">
         <is>
           <t>Kento</t>
         </is>
@@ -3289,9 +3289,9 @@
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B285" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B285" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -3299,9 +3299,9 @@
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B286" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B286" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -3309,9 +3309,9 @@
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B287" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B287" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -3319,9 +3319,9 @@
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B288" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B288" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -3329,9 +3329,9 @@
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B289" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B289" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -3339,9 +3339,9 @@
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B290" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B290" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -3349,9 +3349,9 @@
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B291" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B291" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -3359,9 +3359,9 @@
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B292" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B292" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -3369,9 +3369,9 @@
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B293" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B293" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -3379,9 +3379,9 @@
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B294" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B294" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -3389,9 +3389,9 @@
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B295" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B295" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -3399,9 +3399,9 @@
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B296" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B296" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -3409,9 +3409,9 @@
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B297" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B297" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -3419,9 +3419,9 @@
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B298" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B298" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -3429,9 +3429,9 @@
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B299" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B299" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -3439,9 +3439,9 @@
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B300" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B300" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -3449,9 +3449,9 @@
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B301" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B301" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -3459,9 +3459,9 @@
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B302" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B302" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -3469,9 +3469,9 @@
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B303" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B303" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -3479,9 +3479,9 @@
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B304" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B304" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -3489,9 +3489,9 @@
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B305" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B305" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -3499,9 +3499,9 @@
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B306" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B306" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -3509,9 +3509,9 @@
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B307" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B307" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -3519,9 +3519,9 @@
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B308" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B308" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -3529,9 +3529,9 @@
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B309" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B309" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -3539,9 +3539,9 @@
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B310" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B310" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -3549,9 +3549,9 @@
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B311" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B311" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -3559,9 +3559,9 @@
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B312" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B312" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -3569,9 +3569,9 @@
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B313" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B313" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -3579,9 +3579,9 @@
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B314" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B314" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -3589,9 +3589,9 @@
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B315" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B315" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -3599,9 +3599,9 @@
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B316" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B316" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -3609,9 +3609,9 @@
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B317" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B317" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -3619,9 +3619,9 @@
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B318" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B318" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -3629,9 +3629,9 @@
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B319" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B319" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -3639,9 +3639,9 @@
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B320" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B320" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -3649,9 +3649,9 @@
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B321" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B321" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -3659,9 +3659,9 @@
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B322" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B322" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -3669,9 +3669,9 @@
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B323" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B323" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -3679,9 +3679,9 @@
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B324" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B324" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -3689,9 +3689,9 @@
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B325" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B325" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -3699,9 +3699,9 @@
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B326" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B326" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -3709,9 +3709,9 @@
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B327" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B327" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -3719,9 +3719,9 @@
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B328" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B328" s="0" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
@@ -3729,9 +3729,9 @@
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
-        <v>44903.10089160508</v>
-      </c>
-      <c r="B329" t="inlineStr">
+        <v>44903.1008916088</v>
+      </c>
+      <c r="B329" s="0" t="inlineStr">
         <is>
           <t>Kento</t>
         </is>
